--- a/biology/Botanique/Ardisia_koupensis/Ardisia_koupensis.xlsx
+++ b/biology/Botanique/Ardisia_koupensis/Ardisia_koupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia koupensis est une espèce de plantes à fleurs de la famille des Primulaceae. Elle est endémique au Cameroun dans la zone du Mont Koupé. Son habitat naturel se trouve dans les forêts humides à basse altitude des zones subtropicales ou tropicales. Elle est menacée par la perte de son habitat naturel.
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1979 par le botaniste belge Auguste Simon Taton (1914/27-1989).
-En classification phylogénétique APG III (2009)[2], l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981)[3], le genre Ardisia était assigné la famille des Myrsinaceae.
+En classification phylogénétique APG III (2009), l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981), le genre Ardisia était assigné la famille des Myrsinaceae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Plante menacée d’extinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1979, un spécimen unique de Ardisia koupensis a été trouvé sur les pentes occidentales du mont Koupé, juste au-dessus de Mbule. Depuis lors, cette plante a été trouvée dans deux autres endroits localisés sur la montagne au-dessus du village de Koupé. La plante Ardisia koupensis qui pousse dans les sous-étages des mi-altitudes aux forêts sous-montagneuses à couvert fermé est classée depuis 2004 sur la liste rouge de l'UICN des espèces menacées d'extinction[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, un spécimen unique de Ardisia koupensis a été trouvé sur les pentes occidentales du mont Koupé, juste au-dessus de Mbule. Depuis lors, cette plante a été trouvée dans deux autres endroits localisés sur la montagne au-dessus du village de Koupé. La plante Ardisia koupensis qui pousse dans les sous-étages des mi-altitudes aux forêts sous-montagneuses à couvert fermé est classée depuis 2004 sur la liste rouge de l'UICN des espèces menacées d'extinction.
 </t>
         </is>
       </c>
